--- a/metadata/transducer_locations_mls.xlsx
+++ b/metadata/transducer_locations_mls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bowmani\Documents\Thesis - UoG\MLS Monitoring\R\mlsproc\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31852FF-CF25-4C83-8649-5CC2E63D40B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295267B3-BE59-4ED1-BA3B-1642ECDAC301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{807A9309-2486-124F-80A1-7729D5CF46D6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="78">
   <si>
     <t>file_name</t>
   </si>
@@ -264,14 +264,21 @@
   </si>
   <si>
     <t>ELR2-QA</t>
+  </si>
+  <si>
+    <t>stickup</t>
+  </si>
+  <si>
+    <t>elev</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="000000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -308,11 +315,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -627,23 +635,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E8BA916-5B3E-4C43-9CC4-45BC13B1A502}">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B37" sqref="B2:B37"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="41.59765625" customWidth="1"/>
     <col min="4" max="4" width="11.19921875" style="2"/>
-    <col min="5" max="5" width="11.19921875" style="3"/>
-    <col min="6" max="6" width="11.19921875" style="1"/>
-    <col min="7" max="7" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="11.19921875" style="3"/>
+    <col min="8" max="8" width="11.19921875" style="1"/>
+    <col min="9" max="9" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.796875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -659,23 +667,29 @@
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -691,23 +705,29 @@
       <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="4">
+        <v>377.22500000000002</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="H2" s="1">
         <v>54.56</v>
       </c>
-      <c r="G2" s="1">
+      <c r="I2" s="1">
         <v>55.96</v>
       </c>
-      <c r="H2" s="1">
+      <c r="J2" s="1">
         <v>12</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -723,23 +743,29 @@
       <c r="E3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="4">
+        <v>377.22500000000002</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="H3" s="1">
         <v>42.67</v>
       </c>
-      <c r="G3" s="1">
+      <c r="I3" s="1">
         <v>44.2</v>
       </c>
-      <c r="H3" s="1">
+      <c r="J3" s="1">
         <v>12.2</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -755,23 +781,29 @@
       <c r="E4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="4">
+        <v>377.22500000000002</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.995</v>
+      </c>
+      <c r="H4" s="1">
         <v>25.91</v>
       </c>
-      <c r="G4" s="1">
+      <c r="I4" s="1">
         <v>27.43</v>
       </c>
-      <c r="H4" s="1">
+      <c r="J4" s="1">
         <v>12.22</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -787,23 +819,29 @@
       <c r="E5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="4">
+        <v>377.22500000000002</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="H5" s="1">
         <v>33.53</v>
       </c>
-      <c r="G5" s="1">
+      <c r="I5" s="1">
         <v>35.049999999999997</v>
       </c>
-      <c r="H5" s="1">
+      <c r="J5" s="1">
         <v>12</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -819,23 +857,29 @@
       <c r="E6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="4">
+        <v>377.22500000000002</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="H6" s="1">
         <v>48.77</v>
       </c>
-      <c r="G6" s="1">
+      <c r="I6" s="1">
         <v>50.9</v>
       </c>
-      <c r="H6" s="1">
+      <c r="J6" s="1">
         <v>12</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -851,23 +895,29 @@
       <c r="E7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="4">
+        <v>377.22500000000002</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="H7" s="1">
         <v>42.67</v>
       </c>
-      <c r="G7" s="1">
+      <c r="I7" s="1">
         <v>44.2</v>
       </c>
-      <c r="H7" s="1">
+      <c r="J7" s="1">
         <v>12.2</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -883,23 +933,29 @@
       <c r="E8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="4">
+        <v>377.22500000000002</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="H8" s="1">
         <v>54.56</v>
       </c>
-      <c r="G8" s="1">
+      <c r="I8" s="1">
         <v>55.96</v>
       </c>
-      <c r="H8" s="1">
+      <c r="J8" s="1">
         <v>11</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -915,23 +971,29 @@
       <c r="E9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="4">
+        <v>377.22500000000002</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.995</v>
+      </c>
+      <c r="H9" s="1">
         <v>25.91</v>
       </c>
-      <c r="G9" s="1">
+      <c r="I9" s="1">
         <v>27.43</v>
       </c>
-      <c r="H9" s="1">
+      <c r="J9" s="1">
         <v>12.22</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -947,23 +1009,29 @@
       <c r="E10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="4">
+        <v>377.22500000000002</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="H10" s="1">
         <v>33.53</v>
       </c>
-      <c r="G10" s="1">
+      <c r="I10" s="1">
         <v>35.049999999999997</v>
       </c>
-      <c r="H10" s="1">
+      <c r="J10" s="1">
         <v>12</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K10" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -979,23 +1047,29 @@
       <c r="E11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="4">
+        <v>377.22500000000002</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="H11" s="1">
         <v>48.77</v>
       </c>
-      <c r="G11" s="1">
+      <c r="I11" s="1">
         <v>50.9</v>
       </c>
-      <c r="H11" s="1">
+      <c r="J11" s="1">
         <v>12</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K11" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1011,23 +1085,29 @@
       <c r="E12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="4">
+        <v>377.22500000000002</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="H12" s="1">
         <v>42.67</v>
       </c>
-      <c r="G12" s="1">
+      <c r="I12" s="1">
         <v>44.2</v>
       </c>
-      <c r="H12" s="1">
+      <c r="J12" s="1">
         <v>12.2</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1043,23 +1123,29 @@
       <c r="E13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="4">
+        <v>377.22500000000002</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="H13" s="1">
         <v>54.56</v>
       </c>
-      <c r="G13" s="1">
+      <c r="I13" s="1">
         <v>55.96</v>
       </c>
-      <c r="H13" s="1">
+      <c r="J13" s="1">
         <v>11</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K13" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1075,23 +1161,29 @@
       <c r="E14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="4">
+        <v>377.22500000000002</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.995</v>
+      </c>
+      <c r="H14" s="1">
         <v>25.91</v>
       </c>
-      <c r="G14" s="1">
+      <c r="I14" s="1">
         <v>27.43</v>
       </c>
-      <c r="H14" s="1">
+      <c r="J14" s="1">
         <v>12.22</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1107,23 +1199,29 @@
       <c r="E15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="4">
+        <v>377.22500000000002</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="H15" s="1">
         <v>54.56</v>
       </c>
-      <c r="G15" s="1">
+      <c r="I15" s="1">
         <v>55.96</v>
       </c>
-      <c r="H15" s="1">
+      <c r="J15" s="1">
         <v>12</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1139,23 +1237,29 @@
       <c r="E16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="4">
+        <v>377.22500000000002</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="H16" s="1">
         <v>48.77</v>
       </c>
-      <c r="G16" s="1">
+      <c r="I16" s="1">
         <v>50.9</v>
       </c>
-      <c r="H16" s="1">
+      <c r="J16" s="1">
         <v>12</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K16" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1171,23 +1275,29 @@
       <c r="E17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="4">
+        <v>377.22500000000002</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="H17" s="1">
         <v>42.67</v>
       </c>
-      <c r="G17" s="1">
+      <c r="I17" s="1">
         <v>44.2</v>
       </c>
-      <c r="H17" s="1">
+      <c r="J17" s="1">
         <v>12.2</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K17" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1203,23 +1313,29 @@
       <c r="E18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="4">
+        <v>377.22500000000002</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0.995</v>
+      </c>
+      <c r="H18" s="1">
         <v>25.91</v>
       </c>
-      <c r="G18" s="1">
+      <c r="I18" s="1">
         <v>27.43</v>
       </c>
-      <c r="H18" s="1">
+      <c r="J18" s="1">
         <v>12.22</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K18" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1235,23 +1351,29 @@
       <c r="E19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="4">
+        <v>377.44600000000003</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1.08</v>
+      </c>
+      <c r="H19" s="1">
         <v>15.54</v>
       </c>
-      <c r="G19" s="1">
+      <c r="I19" s="1">
         <v>17.309999999999999</v>
       </c>
-      <c r="H19" s="1">
+      <c r="J19" s="1">
         <v>11.35</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K19" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1267,23 +1389,29 @@
       <c r="E20" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="4">
+        <v>377.44600000000003</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1.1060000000000001</v>
+      </c>
+      <c r="H20" s="1">
         <v>8.5299999999999994</v>
       </c>
-      <c r="G20" s="1">
+      <c r="I20" s="1">
         <v>10.61</v>
       </c>
-      <c r="H20" s="1">
+      <c r="J20" s="1">
         <v>6.1980000000000004</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1299,23 +1427,29 @@
       <c r="E21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="4">
+        <v>377.44600000000003</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1.099</v>
+      </c>
+      <c r="H21" s="1">
         <v>21.95</v>
       </c>
-      <c r="G21" s="1">
+      <c r="I21" s="1">
         <v>23.48</v>
       </c>
-      <c r="H21" s="1">
+      <c r="J21" s="1">
         <v>12.19</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K21" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1331,23 +1465,29 @@
       <c r="E22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="4">
+        <v>377.44600000000003</v>
+      </c>
+      <c r="G22" s="4">
+        <v>1.1160000000000001</v>
+      </c>
+      <c r="H22" s="1">
         <v>18.899999999999999</v>
       </c>
-      <c r="G22" s="1">
+      <c r="I22" s="1">
         <v>20.36</v>
       </c>
-      <c r="H22" s="1">
+      <c r="J22" s="1">
         <v>13</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K22" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1363,23 +1503,29 @@
       <c r="E23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="4">
+        <v>377.44600000000003</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1.08</v>
+      </c>
+      <c r="H23" s="1">
         <v>15.54</v>
       </c>
-      <c r="G23" s="1">
+      <c r="I23" s="1">
         <v>17.309999999999999</v>
       </c>
-      <c r="H23" s="1">
+      <c r="J23" s="1">
         <v>11.35</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K23" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -1395,23 +1541,29 @@
       <c r="E24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="4">
+        <v>377.44600000000003</v>
+      </c>
+      <c r="G24" s="4">
+        <v>1.1060000000000001</v>
+      </c>
+      <c r="H24" s="1">
         <v>11.89</v>
       </c>
-      <c r="G24" s="1">
+      <c r="I24" s="1">
         <v>13.96</v>
       </c>
-      <c r="H24" s="1">
+      <c r="J24" s="1">
         <v>9</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K24" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -1427,23 +1579,29 @@
       <c r="E25" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="4">
+        <v>377.44600000000003</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1.1060000000000001</v>
+      </c>
+      <c r="H25" s="1">
         <v>8.5299999999999994</v>
       </c>
-      <c r="G25" s="1">
+      <c r="I25" s="1">
         <v>10.61</v>
       </c>
-      <c r="H25" s="1">
+      <c r="J25" s="1">
         <v>6.1980000000000004</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K25" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -1459,23 +1617,29 @@
       <c r="E26" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="4">
+        <v>377.44600000000003</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1.1160000000000001</v>
+      </c>
+      <c r="H26" s="1">
         <v>18.899999999999999</v>
       </c>
-      <c r="G26" s="1">
+      <c r="I26" s="1">
         <v>20.36</v>
       </c>
-      <c r="H26" s="1">
+      <c r="J26" s="1">
         <v>13</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K26" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -1491,23 +1655,29 @@
       <c r="E27" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="4">
+        <v>377.44600000000003</v>
+      </c>
+      <c r="G27" s="4">
+        <v>1.08</v>
+      </c>
+      <c r="H27" s="1">
         <v>15.54</v>
       </c>
-      <c r="G27" s="1">
+      <c r="I27" s="1">
         <v>17.309999999999999</v>
       </c>
-      <c r="H27" s="1">
+      <c r="J27" s="1">
         <v>11.35</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K27" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -1523,23 +1693,29 @@
       <c r="E28" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="4">
+        <v>377.44600000000003</v>
+      </c>
+      <c r="G28" s="4">
+        <v>1.1060000000000001</v>
+      </c>
+      <c r="H28" s="1">
         <v>11.89</v>
       </c>
-      <c r="G28" s="1">
+      <c r="I28" s="1">
         <v>13.96</v>
       </c>
-      <c r="H28" s="1">
+      <c r="J28" s="1">
         <v>9</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K28" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -1555,23 +1731,29 @@
       <c r="E29" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="4">
+        <v>377.44600000000003</v>
+      </c>
+      <c r="G29" s="4">
+        <v>1.1060000000000001</v>
+      </c>
+      <c r="H29" s="1">
         <v>8.5299999999999994</v>
       </c>
-      <c r="G29" s="1">
+      <c r="I29" s="1">
         <v>10.61</v>
       </c>
-      <c r="H29" s="1">
+      <c r="J29" s="1">
         <v>6.1980000000000004</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K29" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -1587,23 +1769,29 @@
       <c r="E30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="4">
+        <v>377.44600000000003</v>
+      </c>
+      <c r="G30" s="4">
+        <v>1.1160000000000001</v>
+      </c>
+      <c r="H30" s="1">
         <v>18.899999999999999</v>
       </c>
-      <c r="G30" s="1">
+      <c r="I30" s="1">
         <v>20.36</v>
       </c>
-      <c r="H30" s="1">
+      <c r="J30" s="1">
         <v>13</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K30" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -1619,23 +1807,29 @@
       <c r="E31" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="4">
+        <v>377.44600000000003</v>
+      </c>
+      <c r="G31" s="4">
+        <v>1.08</v>
+      </c>
+      <c r="H31" s="1">
         <v>15.54</v>
       </c>
-      <c r="G31" s="1">
+      <c r="I31" s="1">
         <v>17.309999999999999</v>
       </c>
-      <c r="H31" s="1">
+      <c r="J31" s="1">
         <v>11.35</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K31" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -1651,23 +1845,29 @@
       <c r="E32" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="4">
+        <v>377.44600000000003</v>
+      </c>
+      <c r="G32" s="4">
+        <v>1.1060000000000001</v>
+      </c>
+      <c r="H32" s="1">
         <v>8.5299999999999994</v>
       </c>
-      <c r="G32" s="1">
+      <c r="I32" s="1">
         <v>10.61</v>
       </c>
-      <c r="H32" s="1">
+      <c r="J32" s="1">
         <v>6.1980000000000004</v>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -1683,20 +1883,26 @@
       <c r="E33" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="4">
+        <v>402.52300000000002</v>
+      </c>
+      <c r="G33" s="4">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="H33" s="1">
         <v>78.33</v>
       </c>
-      <c r="G33" s="1">
+      <c r="I33" s="1">
         <v>79.55</v>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -1712,20 +1918,26 @@
       <c r="E34" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="4">
+        <v>402.52300000000002</v>
+      </c>
+      <c r="G34" s="4">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="H34" s="1">
         <v>14.02</v>
       </c>
-      <c r="G34" s="1">
+      <c r="I34" s="1">
         <v>15.39</v>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K34" t="b">
+        <v>0</v>
+      </c>
+      <c r="L34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -1741,23 +1953,29 @@
       <c r="E35" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F35" s="1">
-        <v>0</v>
-      </c>
-      <c r="G35" s="1">
+      <c r="F35" s="4">
+        <v>0</v>
+      </c>
+      <c r="G35" s="4">
         <v>0</v>
       </c>
       <c r="H35" s="1">
         <v>0</v>
       </c>
-      <c r="I35" t="b">
-        <v>1</v>
-      </c>
-      <c r="J35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0</v>
+      </c>
+      <c r="K35" t="b">
+        <v>1</v>
+      </c>
+      <c r="L35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -1773,23 +1991,29 @@
       <c r="E36" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F36" s="1">
-        <v>0</v>
-      </c>
-      <c r="G36" s="1">
+      <c r="F36" s="4">
+        <v>0</v>
+      </c>
+      <c r="G36" s="4">
         <v>0</v>
       </c>
       <c r="H36" s="1">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
+      <c r="J36" s="1">
         <v>0.60299999999999998</v>
       </c>
-      <c r="I36" t="b">
-        <v>1</v>
-      </c>
-      <c r="J36" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K36" t="b">
+        <v>1</v>
+      </c>
+      <c r="L36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -1805,19 +2029,25 @@
       <c r="E37" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F37" s="1">
-        <v>0</v>
-      </c>
-      <c r="G37" s="1">
+      <c r="F37" s="4">
+        <v>0</v>
+      </c>
+      <c r="G37" s="4">
         <v>0</v>
       </c>
       <c r="H37" s="1">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1">
         <v>0.60299999999999998</v>
       </c>
-      <c r="I37" t="b">
-        <v>1</v>
-      </c>
-      <c r="J37" t="b">
+      <c r="K37" t="b">
+        <v>1</v>
+      </c>
+      <c r="L37" t="b">
         <v>1</v>
       </c>
     </row>

--- a/metadata/transducer_locations_mls.xlsx
+++ b/metadata/transducer_locations_mls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bowmani\Documents\Thesis - UoG\MLS Monitoring\R\mlsproc\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295267B3-BE59-4ED1-BA3B-1642ECDAC301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F9E4A1-629B-48D0-88DE-4D2EABEB0C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{807A9309-2486-124F-80A1-7729D5CF46D6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="80">
   <si>
     <t>file_name</t>
   </si>
@@ -270,6 +270,12 @@
   </si>
   <si>
     <t>elev</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Baro_213655_20240626_1219.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Baro_213655_20241029_1451.rsk</t>
   </si>
 </sst>
 </file>
@@ -635,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E8BA916-5B3E-4C43-9CC4-45BC13B1A502}">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38:L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2051,6 +2057,82 @@
         <v>1</v>
       </c>
     </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="2">
+        <v>213655</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F38" s="4">
+        <v>0</v>
+      </c>
+      <c r="G38" s="4">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="K38" t="b">
+        <v>1</v>
+      </c>
+      <c r="L38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="2">
+        <v>213655</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F39" s="4">
+        <v>0</v>
+      </c>
+      <c r="G39" s="4">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="K39" t="b">
+        <v>1</v>
+      </c>
+      <c r="L39" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/metadata/transducer_locations_mls.xlsx
+++ b/metadata/transducer_locations_mls.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bowmani\Documents\Thesis - UoG\MLS Monitoring\R\mlsproc\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F9E4A1-629B-48D0-88DE-4D2EABEB0C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37EAE4C-01CC-4B00-B58A-B6958AF35CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{807A9309-2486-124F-80A1-7729D5CF46D6}"/>
+    <workbookView xWindow="5100" yWindow="816" windowWidth="17280" windowHeight="9960" xr2:uid="{807A9309-2486-124F-80A1-7729D5CF46D6}"/>
   </bookViews>
   <sheets>
     <sheet name="ELR" sheetId="3" r:id="rId1"/>
@@ -643,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E8BA916-5B3E-4C43-9CC4-45BC13B1A502}">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38:L39"/>
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1901,6 +1901,9 @@
       <c r="I33" s="1">
         <v>79.55</v>
       </c>
+      <c r="J33" s="1">
+        <v>24.23</v>
+      </c>
       <c r="K33" t="b">
         <v>0</v>
       </c>
@@ -1936,6 +1939,9 @@
       <c r="I34" s="1">
         <v>15.39</v>
       </c>
+      <c r="J34" s="1">
+        <v>12.14</v>
+      </c>
       <c r="K34" t="b">
         <v>0</v>
       </c>
@@ -1972,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="1">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="K35" t="b">
         <v>1</v>

--- a/metadata/transducer_locations_mls.xlsx
+++ b/metadata/transducer_locations_mls.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bowmani\Documents\Thesis - UoG\MLS Monitoring\R\mlsproc\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37EAE4C-01CC-4B00-B58A-B6958AF35CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60462B7-8CAD-4A2B-BA36-19354F0590DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5100" yWindow="816" windowWidth="17280" windowHeight="9960" xr2:uid="{807A9309-2486-124F-80A1-7729D5CF46D6}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{807A9309-2486-124F-80A1-7729D5CF46D6}"/>
   </bookViews>
   <sheets>
     <sheet name="ELR" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="81">
   <si>
     <t>file_name</t>
   </si>
@@ -276,6 +276,9 @@
   </si>
   <si>
     <t>ELR1-R1_Baro_213655_20241029_1451.rsk</t>
+  </si>
+  <si>
+    <t>midpoint</t>
   </si>
 </sst>
 </file>
@@ -321,12 +324,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -345,9 +350,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -385,7 +390,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -491,7 +496,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -633,7 +638,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -641,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E8BA916-5B3E-4C43-9CC4-45BC13B1A502}">
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -655,9 +660,10 @@
     <col min="8" max="8" width="11.19921875" style="1"/>
     <col min="9" max="9" width="13.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.796875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -688,14 +694,17 @@
       <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -726,14 +735,17 @@
       <c r="J2" s="1">
         <v>12</v>
       </c>
-      <c r="K2" t="b">
-        <v>0</v>
+      <c r="K2" s="5">
+        <v>55.257543431880521</v>
       </c>
       <c r="L2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -764,14 +776,17 @@
       <c r="J3" s="1">
         <v>12.2</v>
       </c>
-      <c r="K3" t="b">
-        <v>0</v>
+      <c r="K3" s="6">
+        <v>43.41664126790613</v>
       </c>
       <c r="L3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -802,14 +817,17 @@
       <c r="J4" s="1">
         <v>12.22</v>
       </c>
-      <c r="K4" t="b">
-        <v>0</v>
+      <c r="K4" s="6">
+        <v>26.668698567509907</v>
       </c>
       <c r="L4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -840,14 +858,17 @@
       <c r="J5" s="1">
         <v>12</v>
       </c>
-      <c r="K5" t="b">
-        <v>0</v>
+      <c r="K5" s="6">
+        <v>55.26</v>
       </c>
       <c r="L5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -878,14 +899,17 @@
       <c r="J6" s="1">
         <v>12</v>
       </c>
-      <c r="K6" t="b">
-        <v>0</v>
+      <c r="K6" s="6">
+        <v>49.843035659859794</v>
       </c>
       <c r="L6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -916,14 +940,17 @@
       <c r="J7" s="1">
         <v>12.2</v>
       </c>
-      <c r="K7" t="b">
-        <v>0</v>
+      <c r="K7" s="6">
+        <v>43.41664126790613</v>
       </c>
       <c r="L7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -954,14 +981,17 @@
       <c r="J8" s="1">
         <v>11</v>
       </c>
-      <c r="K8" t="b">
-        <v>0</v>
+      <c r="K8" s="5">
+        <v>34.29</v>
       </c>
       <c r="L8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -992,14 +1022,17 @@
       <c r="J9" s="1">
         <v>12.22</v>
       </c>
-      <c r="K9" t="b">
-        <v>0</v>
+      <c r="K9" s="6">
+        <v>26.668698567509907</v>
       </c>
       <c r="L9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1030,14 +1063,17 @@
       <c r="J10" s="1">
         <v>12</v>
       </c>
-      <c r="K10" t="b">
-        <v>0</v>
+      <c r="K10" s="6">
+        <v>55.26</v>
       </c>
       <c r="L10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1068,14 +1104,17 @@
       <c r="J11" s="1">
         <v>12</v>
       </c>
-      <c r="K11" t="b">
-        <v>0</v>
+      <c r="K11" s="6">
+        <v>49.843035659859794</v>
       </c>
       <c r="L11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1106,14 +1145,17 @@
       <c r="J12" s="1">
         <v>12.2</v>
       </c>
-      <c r="K12" t="b">
-        <v>0</v>
+      <c r="K12" s="6">
+        <v>43.41664126790613</v>
       </c>
       <c r="L12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1144,14 +1186,17 @@
       <c r="J13" s="1">
         <v>11</v>
       </c>
-      <c r="K13" t="b">
-        <v>0</v>
+      <c r="K13" s="5">
+        <v>34.29</v>
       </c>
       <c r="L13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1182,14 +1227,17 @@
       <c r="J14" s="1">
         <v>12.22</v>
       </c>
-      <c r="K14" t="b">
-        <v>0</v>
+      <c r="K14" s="6">
+        <v>26.668698567509907</v>
       </c>
       <c r="L14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1220,14 +1268,17 @@
       <c r="J15" s="1">
         <v>12</v>
       </c>
-      <c r="K15" t="b">
-        <v>0</v>
+      <c r="K15" s="5">
+        <v>55.257543431880521</v>
       </c>
       <c r="L15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1258,14 +1309,17 @@
       <c r="J16" s="1">
         <v>12</v>
       </c>
-      <c r="K16" t="b">
-        <v>0</v>
+      <c r="K16" s="6">
+        <v>49.843035659859794</v>
       </c>
       <c r="L16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1296,14 +1350,17 @@
       <c r="J17" s="1">
         <v>12.2</v>
       </c>
-      <c r="K17" t="b">
-        <v>0</v>
+      <c r="K17" s="1">
+        <v>43.41664126790613</v>
       </c>
       <c r="L17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1334,14 +1391,17 @@
       <c r="J18" s="1">
         <v>12.22</v>
       </c>
-      <c r="K18" t="b">
-        <v>0</v>
+      <c r="K18" s="1">
+        <v>26.668698567509907</v>
       </c>
       <c r="L18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1372,14 +1432,17 @@
       <c r="J19" s="1">
         <v>11.35</v>
       </c>
-      <c r="K19" t="b">
-        <v>0</v>
+      <c r="K19" s="1">
+        <v>16.427918317586101</v>
       </c>
       <c r="L19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1410,14 +1473,17 @@
       <c r="J20" s="1">
         <v>6.1980000000000004</v>
       </c>
-      <c r="K20" t="b">
-        <v>0</v>
+      <c r="K20" s="1">
+        <v>9.5702529716549822</v>
       </c>
       <c r="L20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1448,14 +1514,17 @@
       <c r="J21" s="1">
         <v>12.19</v>
       </c>
-      <c r="K21" t="b">
-        <v>0</v>
+      <c r="K21" s="1">
+        <v>22.714111551356293</v>
       </c>
       <c r="L21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1486,14 +1555,17 @@
       <c r="J22" s="1">
         <v>13</v>
       </c>
-      <c r="K22" t="b">
-        <v>0</v>
+      <c r="K22" s="1">
+        <v>19.628162145687291</v>
       </c>
       <c r="L22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1524,14 +1596,17 @@
       <c r="J23" s="1">
         <v>11.35</v>
       </c>
-      <c r="K23" t="b">
-        <v>0</v>
+      <c r="K23" s="1">
+        <v>16.427918317586101</v>
       </c>
       <c r="L23" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -1562,14 +1637,17 @@
       <c r="J24" s="1">
         <v>9</v>
       </c>
-      <c r="K24" t="b">
-        <v>0</v>
+      <c r="K24" s="1">
+        <v>12.922889362999085</v>
       </c>
       <c r="L24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -1600,14 +1678,17 @@
       <c r="J25" s="1">
         <v>6.1980000000000004</v>
       </c>
-      <c r="K25" t="b">
-        <v>0</v>
+      <c r="K25" s="1">
+        <v>9.5702529716549822</v>
       </c>
       <c r="L25" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -1638,14 +1719,17 @@
       <c r="J26" s="1">
         <v>13</v>
       </c>
-      <c r="K26" t="b">
-        <v>0</v>
+      <c r="K26" s="1">
+        <v>19.628162145687291</v>
       </c>
       <c r="L26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -1676,14 +1760,17 @@
       <c r="J27" s="1">
         <v>11.35</v>
       </c>
-      <c r="K27" t="b">
-        <v>0</v>
+      <c r="K27" s="1">
+        <v>16.427918317586101</v>
       </c>
       <c r="L27" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -1714,14 +1801,17 @@
       <c r="J28" s="1">
         <v>9</v>
       </c>
-      <c r="K28" t="b">
-        <v>0</v>
+      <c r="K28" s="1">
+        <v>12.922889362999085</v>
       </c>
       <c r="L28" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -1752,14 +1842,17 @@
       <c r="J29" s="1">
         <v>6.1980000000000004</v>
       </c>
-      <c r="K29" t="b">
-        <v>0</v>
+      <c r="K29" s="1">
+        <v>9.5702529716549822</v>
       </c>
       <c r="L29" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -1790,14 +1883,17 @@
       <c r="J30" s="1">
         <v>13</v>
       </c>
-      <c r="K30" t="b">
-        <v>0</v>
+      <c r="K30" s="1">
+        <v>19.628162145687291</v>
       </c>
       <c r="L30" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -1828,14 +1924,17 @@
       <c r="J31" s="1">
         <v>11.35</v>
       </c>
-      <c r="K31" t="b">
-        <v>0</v>
+      <c r="K31" s="1">
+        <v>16.427918317586101</v>
       </c>
       <c r="L31" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -1866,14 +1965,17 @@
       <c r="J32" s="1">
         <v>6.1980000000000004</v>
       </c>
-      <c r="K32" t="b">
-        <v>0</v>
+      <c r="K32" s="1">
+        <v>9.5702529716549822</v>
       </c>
       <c r="L32" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -1904,14 +2006,17 @@
       <c r="J33" s="1">
         <v>24.23</v>
       </c>
-      <c r="K33" t="b">
-        <v>0</v>
+      <c r="K33" s="1">
+        <v>78.94</v>
       </c>
       <c r="L33" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -1942,14 +2047,17 @@
       <c r="J34" s="1">
         <v>12.14</v>
       </c>
-      <c r="K34" t="b">
-        <v>0</v>
+      <c r="K34" s="1">
+        <v>14.71</v>
       </c>
       <c r="L34" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -1980,14 +2088,17 @@
       <c r="J35" s="1">
         <v>0.43</v>
       </c>
-      <c r="K35" t="b">
-        <v>1</v>
+      <c r="K35" s="1">
+        <v>0.43</v>
       </c>
       <c r="L35" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -2018,14 +2129,17 @@
       <c r="J36" s="1">
         <v>0.60299999999999998</v>
       </c>
-      <c r="K36" t="b">
-        <v>1</v>
+      <c r="K36" s="1">
+        <v>0.60299999999999998</v>
       </c>
       <c r="L36" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -2056,14 +2170,17 @@
       <c r="J37" s="1">
         <v>0.60299999999999998</v>
       </c>
-      <c r="K37" t="b">
-        <v>1</v>
+      <c r="K37" s="1">
+        <v>0.60299999999999998</v>
       </c>
       <c r="L37" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -2094,14 +2211,17 @@
       <c r="J38" s="1">
         <v>0.57799999999999996</v>
       </c>
-      <c r="K38" t="b">
-        <v>1</v>
+      <c r="K38" s="1">
+        <v>0.57799999999999996</v>
       </c>
       <c r="L38" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -2132,10 +2252,13 @@
       <c r="J39" s="1">
         <v>0.57799999999999996</v>
       </c>
-      <c r="K39" t="b">
-        <v>1</v>
+      <c r="K39" s="1">
+        <v>0.57799999999999996</v>
       </c>
       <c r="L39" t="b">
+        <v>1</v>
+      </c>
+      <c r="M39" t="b">
         <v>1</v>
       </c>
     </row>

--- a/metadata/transducer_locations_mls.xlsx
+++ b/metadata/transducer_locations_mls.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bowmani\Documents\Thesis - UoG\MLS Monitoring\R\mlsproc\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60462B7-8CAD-4A2B-BA36-19354F0590DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFEF374B-A2AC-4188-80EA-B200A2D47330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{807A9309-2486-124F-80A1-7729D5CF46D6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{807A9309-2486-124F-80A1-7729D5CF46D6}"/>
   </bookViews>
   <sheets>
     <sheet name="ELR" sheetId="3" r:id="rId1"/>
@@ -324,14 +324,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -648,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E8BA916-5B3E-4C43-9CC4-45BC13B1A502}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K16"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -735,8 +733,8 @@
       <c r="J2" s="1">
         <v>12</v>
       </c>
-      <c r="K2" s="5">
-        <v>55.257543431880521</v>
+      <c r="K2" s="1">
+        <v>55.26</v>
       </c>
       <c r="L2" t="b">
         <v>0</v>
@@ -776,8 +774,8 @@
       <c r="J3" s="1">
         <v>12.2</v>
       </c>
-      <c r="K3" s="6">
-        <v>43.41664126790613</v>
+      <c r="K3" s="1">
+        <v>43.42</v>
       </c>
       <c r="L3" t="b">
         <v>0</v>
@@ -817,8 +815,8 @@
       <c r="J4" s="1">
         <v>12.22</v>
       </c>
-      <c r="K4" s="6">
-        <v>26.668698567509907</v>
+      <c r="K4" s="1">
+        <v>26.67</v>
       </c>
       <c r="L4" t="b">
         <v>0</v>
@@ -858,7 +856,7 @@
       <c r="J5" s="1">
         <v>12</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="1">
         <v>55.26</v>
       </c>
       <c r="L5" t="b">
@@ -899,8 +897,8 @@
       <c r="J6" s="1">
         <v>12</v>
       </c>
-      <c r="K6" s="6">
-        <v>49.843035659859794</v>
+      <c r="K6" s="1">
+        <v>49.84</v>
       </c>
       <c r="L6" t="b">
         <v>0</v>
@@ -940,8 +938,8 @@
       <c r="J7" s="1">
         <v>12.2</v>
       </c>
-      <c r="K7" s="6">
-        <v>43.41664126790613</v>
+      <c r="K7" s="1">
+        <v>43.42</v>
       </c>
       <c r="L7" t="b">
         <v>0</v>
@@ -981,7 +979,7 @@
       <c r="J8" s="1">
         <v>11</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="1">
         <v>34.29</v>
       </c>
       <c r="L8" t="b">
@@ -1022,8 +1020,8 @@
       <c r="J9" s="1">
         <v>12.22</v>
       </c>
-      <c r="K9" s="6">
-        <v>26.668698567509907</v>
+      <c r="K9" s="1">
+        <v>26.67</v>
       </c>
       <c r="L9" t="b">
         <v>0</v>
@@ -1063,7 +1061,7 @@
       <c r="J10" s="1">
         <v>12</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="1">
         <v>55.26</v>
       </c>
       <c r="L10" t="b">
@@ -1104,8 +1102,8 @@
       <c r="J11" s="1">
         <v>12</v>
       </c>
-      <c r="K11" s="6">
-        <v>49.843035659859794</v>
+      <c r="K11" s="1">
+        <v>49.84</v>
       </c>
       <c r="L11" t="b">
         <v>0</v>
@@ -1145,8 +1143,8 @@
       <c r="J12" s="1">
         <v>12.2</v>
       </c>
-      <c r="K12" s="6">
-        <v>43.41664126790613</v>
+      <c r="K12" s="1">
+        <v>43.42</v>
       </c>
       <c r="L12" t="b">
         <v>0</v>
@@ -1186,7 +1184,7 @@
       <c r="J13" s="1">
         <v>11</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="1">
         <v>34.29</v>
       </c>
       <c r="L13" t="b">
@@ -1227,8 +1225,8 @@
       <c r="J14" s="1">
         <v>12.22</v>
       </c>
-      <c r="K14" s="6">
-        <v>26.668698567509907</v>
+      <c r="K14" s="1">
+        <v>26.67</v>
       </c>
       <c r="L14" t="b">
         <v>0</v>
@@ -1268,8 +1266,8 @@
       <c r="J15" s="1">
         <v>12</v>
       </c>
-      <c r="K15" s="5">
-        <v>55.257543431880521</v>
+      <c r="K15" s="1">
+        <v>55.26</v>
       </c>
       <c r="L15" t="b">
         <v>0</v>
@@ -1309,8 +1307,8 @@
       <c r="J16" s="1">
         <v>12</v>
       </c>
-      <c r="K16" s="6">
-        <v>49.843035659859794</v>
+      <c r="K16" s="1">
+        <v>49.84</v>
       </c>
       <c r="L16" t="b">
         <v>0</v>
@@ -1351,7 +1349,7 @@
         <v>12.2</v>
       </c>
       <c r="K17" s="1">
-        <v>43.41664126790613</v>
+        <v>43.42</v>
       </c>
       <c r="L17" t="b">
         <v>0</v>
@@ -1392,7 +1390,7 @@
         <v>12.22</v>
       </c>
       <c r="K18" s="1">
-        <v>26.668698567509907</v>
+        <v>26.67</v>
       </c>
       <c r="L18" t="b">
         <v>0</v>
@@ -1433,7 +1431,7 @@
         <v>11.35</v>
       </c>
       <c r="K19" s="1">
-        <v>16.427918317586101</v>
+        <v>16.43</v>
       </c>
       <c r="L19" t="b">
         <v>0</v>
@@ -1474,7 +1472,7 @@
         <v>6.1980000000000004</v>
       </c>
       <c r="K20" s="1">
-        <v>9.5702529716549822</v>
+        <v>9.57</v>
       </c>
       <c r="L20" t="b">
         <v>0</v>
@@ -1515,7 +1513,7 @@
         <v>12.19</v>
       </c>
       <c r="K21" s="1">
-        <v>22.714111551356293</v>
+        <v>22.71</v>
       </c>
       <c r="L21" t="b">
         <v>0</v>
@@ -1556,7 +1554,7 @@
         <v>13</v>
       </c>
       <c r="K22" s="1">
-        <v>19.628162145687291</v>
+        <v>19.63</v>
       </c>
       <c r="L22" t="b">
         <v>0</v>
@@ -1597,7 +1595,7 @@
         <v>11.35</v>
       </c>
       <c r="K23" s="1">
-        <v>16.427918317586101</v>
+        <v>16.43</v>
       </c>
       <c r="L23" t="b">
         <v>0</v>
@@ -1638,7 +1636,7 @@
         <v>9</v>
       </c>
       <c r="K24" s="1">
-        <v>12.922889362999085</v>
+        <v>12.92</v>
       </c>
       <c r="L24" t="b">
         <v>0</v>
@@ -1679,7 +1677,7 @@
         <v>6.1980000000000004</v>
       </c>
       <c r="K25" s="1">
-        <v>9.5702529716549822</v>
+        <v>9.57</v>
       </c>
       <c r="L25" t="b">
         <v>0</v>
@@ -1720,7 +1718,7 @@
         <v>13</v>
       </c>
       <c r="K26" s="1">
-        <v>19.628162145687291</v>
+        <v>19.63</v>
       </c>
       <c r="L26" t="b">
         <v>0</v>
@@ -1761,7 +1759,7 @@
         <v>11.35</v>
       </c>
       <c r="K27" s="1">
-        <v>16.427918317586101</v>
+        <v>16.43</v>
       </c>
       <c r="L27" t="b">
         <v>0</v>
@@ -1802,7 +1800,7 @@
         <v>9</v>
       </c>
       <c r="K28" s="1">
-        <v>12.922889362999085</v>
+        <v>12.92</v>
       </c>
       <c r="L28" t="b">
         <v>0</v>
@@ -1843,7 +1841,7 @@
         <v>6.1980000000000004</v>
       </c>
       <c r="K29" s="1">
-        <v>9.5702529716549822</v>
+        <v>9.57</v>
       </c>
       <c r="L29" t="b">
         <v>0</v>
@@ -1884,7 +1882,7 @@
         <v>13</v>
       </c>
       <c r="K30" s="1">
-        <v>19.628162145687291</v>
+        <v>19.63</v>
       </c>
       <c r="L30" t="b">
         <v>0</v>
@@ -1925,7 +1923,7 @@
         <v>11.35</v>
       </c>
       <c r="K31" s="1">
-        <v>16.427918317586101</v>
+        <v>16.43</v>
       </c>
       <c r="L31" t="b">
         <v>0</v>
@@ -1966,7 +1964,7 @@
         <v>6.1980000000000004</v>
       </c>
       <c r="K32" s="1">
-        <v>9.5702529716549822</v>
+        <v>9.57</v>
       </c>
       <c r="L32" t="b">
         <v>0</v>
@@ -2130,7 +2128,7 @@
         <v>0.60299999999999998</v>
       </c>
       <c r="K36" s="1">
-        <v>0.60299999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="L36" t="b">
         <v>1</v>
@@ -2171,7 +2169,7 @@
         <v>0.60299999999999998</v>
       </c>
       <c r="K37" s="1">
-        <v>0.60299999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="L37" t="b">
         <v>1</v>
@@ -2212,7 +2210,7 @@
         <v>0.57799999999999996</v>
       </c>
       <c r="K38" s="1">
-        <v>0.57799999999999996</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="L38" t="b">
         <v>1</v>
@@ -2253,7 +2251,7 @@
         <v>0.57799999999999996</v>
       </c>
       <c r="K39" s="1">
-        <v>0.57799999999999996</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="L39" t="b">
         <v>1</v>
